--- a/EShop/Content/Downloads/ImportExample.xlsx
+++ b/EShop/Content/Downloads/ImportExample.xlsx
@@ -1,75 +1,177 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justina.jukneviciute\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\BFW2MDPD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A5979C-F95F-4A1B-96ED-E15D027A7B6B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11775" windowHeight="4155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Items" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+  <si>
+    <t>99,99</t>
+  </si>
+  <si>
+    <t>15,99</t>
+  </si>
+  <si>
+    <t>11,11</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
   <si>
     <t>Price</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>CategoryId</t>
-  </si>
-  <si>
-    <t>ImageUrl</t>
-  </si>
-  <si>
-    <t>Item1</t>
-  </si>
-  <si>
-    <t>Description1</t>
-  </si>
-  <si>
-    <t>Item2</t>
-  </si>
-  <si>
-    <t>Description2</t>
-  </si>
-  <si>
-    <t>Item3</t>
-  </si>
-  <si>
-    <t>image.png</t>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>iPhone</t>
+  </si>
+  <si>
+    <t>Smart watch</t>
+  </si>
+  <si>
+    <t>Kettle</t>
+  </si>
+  <si>
+    <t>Lorem ipsum</t>
+  </si>
+  <si>
+    <t>dolor sit amet</t>
+  </si>
+  <si>
+    <t>consectetur adipiscing elit</t>
+  </si>
+  <si>
+    <t>electronics/phones/smart-phones</t>
+  </si>
+  <si>
+    <t>electronics/other/smart-watches</t>
+  </si>
+  <si>
+    <t>electronics/house-appliances/other</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>100g</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>something</t>
+  </si>
+  <si>
+    <t>battery life</t>
+  </si>
+  <si>
+    <t>15hrs</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>power consumption</t>
+  </si>
+  <si>
+    <t>60W</t>
+  </si>
+  <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>props</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>SKU Code</t>
+  </si>
+  <si>
+    <t>SK15987</t>
+  </si>
+  <si>
+    <t>SK123548</t>
+  </si>
+  <si>
+    <t>FG854656</t>
+  </si>
+  <si>
+    <t>&lt;either a path to files or URLs&gt;</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat.</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="186"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="186"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -88,29 +190,148 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Paprastas" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -120,39 +341,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,9 +405,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,6 +440,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -229,240 +452,411 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="66.7109375" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>1212</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>122</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
+      <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <mergeCells count="22">
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>